--- a/src/test/testdata/Data.xlsx
+++ b/src/test/testdata/Data.xlsx
@@ -3,26 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF56370-DA85-4FB0-8071-DD80CE370DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06D2C31-5E3D-4321-8512-86C08AF6B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>http://www.QATechTesting.com</t>
   </si>
   <si>
     <t>https://www.cloudm.io/</t>
@@ -379,39 +374,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +393,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -435,16 +402,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>